--- a/Documentation/Personal Finance Management App.xlsx
+++ b/Documentation/Personal Finance Management App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer Interview\Projects\PersonalFinanceManagement\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD9FA5-13A6-46C7-B4A9-1164B1D4CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635657F-673F-45DE-BE91-4460E0677469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="473" yWindow="1028" windowWidth="19597" windowHeight="9637" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend_Endpoints" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="85">
   <si>
     <t>End Points</t>
   </si>
@@ -107,9 +107,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>/api/expenses/</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -279,6 +276,12 @@
   </si>
   <si>
     <t xml:space="preserve">decimal = 2 </t>
+  </si>
+  <si>
+    <t>/api/get-expenses/</t>
+  </si>
+  <si>
+    <t>/api/add-expenses/</t>
   </si>
 </sst>
 </file>
@@ -863,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -902,7 +905,7 @@
       </c>
       <c r="H1" s="9"/>
       <c r="J1" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -935,7 +938,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1112,12 +1115,12 @@
         <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>13</v>
@@ -1131,10 +1134,10 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1145,7 +1148,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>13</v>
@@ -1159,7 +1162,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>13</v>
@@ -1168,22 +1171,22 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>13</v>
@@ -1195,16 +1198,16 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1213,13 +1216,13 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>13</v>
@@ -1231,13 +1234,13 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>13</v>
@@ -1246,22 +1249,22 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>13</v>
@@ -1273,16 +1276,16 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -1291,13 +1294,13 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>13</v>
@@ -1309,13 +1312,13 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>13</v>
@@ -1324,13 +1327,13 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1349,21 +1352,21 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>13</v>
@@ -1377,10 +1380,10 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -1391,7 +1394,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>13</v>
@@ -1405,7 +1408,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>13</v>
@@ -1414,22 +1417,22 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>13</v>
@@ -1441,16 +1444,16 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -1459,13 +1462,13 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>13</v>
@@ -1477,13 +1480,13 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>13</v>
@@ -1492,22 +1495,22 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>13</v>
@@ -1519,16 +1522,16 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -1537,13 +1540,13 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>13</v>
@@ -1555,13 +1558,13 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>13</v>
@@ -1570,13 +1573,13 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1607,7 +1610,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B28"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1622,7 +1625,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1632,17 +1635,17 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1654,7 +1657,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1671,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -1684,33 +1687,33 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1738,22 +1741,22 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1783,67 +1786,67 @@
         <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -1856,7 +1859,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1873,67 +1876,67 @@
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1"/>
     </row>
@@ -1965,15 +1968,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1"/>
     </row>
@@ -1983,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -1992,37 +1995,37 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
         <v>77</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>78</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -2031,13 +2034,13 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>78</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -2046,31 +2049,31 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
         <v>80</v>
-      </c>
-      <c r="I11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -2079,7 +2082,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1"/>
     </row>
@@ -2089,55 +2092,55 @@
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
         <v>77</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -2146,7 +2149,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1"/>
     </row>
@@ -2156,55 +2159,55 @@
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
         <v>77</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>78</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Personal Finance Management App.xlsx
+++ b/Documentation/Personal Finance Management App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer Interview\Projects\PersonalFinanceManagement\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5635657F-673F-45DE-BE91-4460E0677469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1BD702-276F-4D56-A1F1-1492CB963A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend_Endpoints" sheetId="1" r:id="rId1"/>
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1609,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506C66E8-A615-4E96-8646-9A2E8E28999D}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
